--- a/ABC/Nacionalidad habilitadas.xlsx
+++ b/ABC/Nacionalidad habilitadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fabian\CHESTERFIELD\DNM\Nacionalidad habilitadas ABC e-Gate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Planes de prueba y reportes\ABC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{8B29FA49-5CB6-4527-906F-15386DD307DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034FB7EC-5A05-454F-AEB0-98E42FB5F888}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F5F71-F2B0-42BC-8493-AC935BE794CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{58410FE3-0C62-4784-AA1A-BA016E24C4CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58410FE3-0C62-4784-AA1A-BA016E24C4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -668,19 +668,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9064C120-881D-4111-8710-47CFEE2A0CB7}">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,21 +689,21 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -783,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -797,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -811,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>25</v>
       </c>
@@ -819,7 +819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -827,7 +827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>29</v>
       </c>
@@ -843,7 +843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>31</v>
       </c>
@@ -851,7 +851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>33</v>
       </c>
@@ -859,7 +859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>15</v>
       </c>
@@ -867,7 +867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>35</v>
       </c>
@@ -875,7 +875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>37</v>
       </c>
@@ -883,7 +883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>39</v>
       </c>
@@ -891,7 +891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>41</v>
       </c>
@@ -899,7 +899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>43</v>
       </c>
@@ -907,7 +907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>45</v>
       </c>
@@ -915,7 +915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>47</v>
       </c>
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>49</v>
       </c>
@@ -931,7 +931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>19</v>
       </c>
@@ -939,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>51</v>
       </c>
@@ -947,7 +947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>53</v>
       </c>
@@ -955,7 +955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>55</v>
       </c>
@@ -963,7 +963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>57</v>
       </c>
@@ -971,7 +971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>59</v>
       </c>
@@ -979,7 +979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>61</v>
       </c>
@@ -987,7 +987,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>63</v>
       </c>
@@ -995,7 +995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>65</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>67</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>69</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>71</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>73</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>75</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>77</v>
       </c>
